--- a/biology/Botanique/Arbres_remarquables_de_France/Arbres_remarquables_de_France.xlsx
+++ b/biology/Botanique/Arbres_remarquables_de_France/Arbres_remarquables_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les arbres remarquables de France sont des arbres vivants exceptionnels par leur âge, leurs dimensions, leur forme, leur passé ou encore leur légende. Ces ligneux représentent un patrimoine naturel et culturel qui doit être conservé. Certains ont été classés « monument naturel » par l'État dans les années 1930[1] et le dernier est le platane de Cézy en 2018 après six ans de procédure.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les arbres remarquables de France sont des arbres vivants exceptionnels par leur âge, leurs dimensions, leur forme, leur passé ou encore leur légende. Ces ligneux représentent un patrimoine naturel et culturel qui doit être conservé. Certains ont été classés « monument naturel » par l'État dans les années 1930 et le dernier est le platane de Cézy en 2018 après six ans de procédure.
 L'association A.R.B.R.E.S. remet le label «Arbre remarquable de France' reconnu par l'État pour les arbres « remarqués d'intérêt national ». Les arbres lauréats du concours national de l'arbre de l'année, prix du public et prix du jury, sont également des arbres remarquables d'intérêt national, aussi labellisés « Arbre remarquable de France » pour la plupart.
-Les régions, départements et communes font appel à leurs services spécialisés ou à des organismes et associations pour le suivi et l'inventaire : visiter les arbres, les mesurer, les observer, les photographier sous toutes les coutures et les répertorier dans une base de données. Les arbres sont parfois classés en trois catégories : « arbres remarquables », « beaux arbres », et « curiosités »[2].
+Les régions, départements et communes font appel à leurs services spécialisés ou à des organismes et associations pour le suivi et l'inventaire : visiter les arbres, les mesurer, les observer, les photographier sous toutes les coutures et les répertorier dans une base de données. Les arbres sont parfois classés en trois catégories : « arbres remarquables », « beaux arbres », et « curiosités ».
 La liste ci-dessous répertorie les arbres remarquables, situés en France, qu'ils aient obtenu ou non le label « Arbre remarquable de France » décerné par l'association ARBRES.
 </t>
         </is>
@@ -514,13 +526,15 @@
           <t>Critères</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les arbres remarquables de France sont considérés remarquables à plusieurs titres :
 soit parce qu'ils battent des records de dimensions (les plus grands, les plus gros, etc.) ou d'âge (les plus vieux)
 soit parce qu'ils présentent d'autres caractéristiques physiques particulières et rares
 soit parce qu'ils présentent un intérêt historique.
-« Plusieurs chênes ou tilleuls, oliviers ou caroubiers de villages français sont réputés millénaires, en raison par exemple de documents attestant de leur date de plantation. On avance ainsi des âges de 2 000 ans pour l’olivier de Roquebrune-Cap-Martin (Alpes-Maritimes), de plus de mille ans pour le chêne d’Allouville-Bellefosse en Normandie… Mais, si l’on remonte à l’an mille, aucun document ne permet de garantir que l’arbre n’a pas été plusieurs fois replanté. Comme ces arbres sont le plus souvent creux, on ne pourra sans doute jamais connaître leur âge réel, même très approximativement[3]. »
+« Plusieurs chênes ou tilleuls, oliviers ou caroubiers de villages français sont réputés millénaires, en raison par exemple de documents attestant de leur date de plantation. On avance ainsi des âges de 2 000 ans pour l’olivier de Roquebrune-Cap-Martin (Alpes-Maritimes), de plus de mille ans pour le chêne d’Allouville-Bellefosse en Normandie… Mais, si l’on remonte à l’an mille, aucun document ne permet de garantir que l’arbre n’a pas été plusieurs fois replanté. Comme ces arbres sont le plus souvent creux, on ne pourra sans doute jamais connaître leur âge réel, même très approximativement. »
 </t>
         </is>
       </c>
@@ -549,11 +563,13 @@
           <t>Label « Arbre remarquable de France »</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« Arbre remarquable de France » est un label décerné, depuis 2000, après étude de dossier, par l'association ARBRES (Arbres Remarquables : Bilan, Recherche, Études et Sauvegarde) qui effectue un inventaire à l'échelle du territoire national. Les arbres ainsi distingués sont signalés par un panneau « Arbre remarquable de France »
-Ce label distingue des sujets exceptionnels, au nombre d'environ 700 arbres en 2019[4] ainsi que des ensembles arborés remarquables.
-Les communes, collectivités territoriales, établissements publics, associations et propriétaires privés qui reçoivent ce label s'engagent, par un accord de partenariat, à « entretenir, sauvegarder et mettre en valeur l'arbre distingué, considéré comme patrimoine naturel et culturel »[5].
+Ce label distingue des sujets exceptionnels, au nombre d'environ 700 arbres en 2019 ainsi que des ensembles arborés remarquables.
+Les communes, collectivités territoriales, établissements publics, associations et propriétaires privés qui reçoivent ce label s'engagent, par un accord de partenariat, à « entretenir, sauvegarder et mettre en valeur l'arbre distingué, considéré comme patrimoine naturel et culturel ».
 			Panneau d'information de l'association A.R.B.R.E.S. (2003).
 			Panneau d'information de l'association A.R.B.R.E.S. (2018).
 </t>
@@ -584,13 +600,52 @@
           <t>Liste des arbres remarquables de France par région</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les arbres remarquables sont classés par régions, départements et communes. La liste des arbres labellisés 'Arbre remarquable de France' ou 'ensemble arboré remarquable ' par l'association A.R.B.R.E.S. est disponible par département sur demande (document mis à jour régulièrement), et consultable sur la carte interactive en ligne sur www.arbres.org.
-Auvergne-Rhône-Alpes
-Ain
-Allier
-Saint-Nicolas-des-Biefs : hêtres de l'allée des Géants, âgés de 400 ans, répertoriés en 1998 par le Muséum national d'histoire naturelle en tant qu'ensemble d'éléments naturels exceptionnels.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les arbres remarquables sont classés par régions, départements et communes. La liste des arbres labellisés 'Arbre remarquable de France' ou 'ensemble arboré remarquable ' par l'association A.R.B.R.E.S. est disponible par département sur demande (document mis à jour régulièrement), et consultable sur la carte interactive en ligne sur www.arbres.org.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Allier</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Saint-Nicolas-des-Biefs : hêtres de l'allée des Géants, âgés de 400 ans, répertoriés en 1998 par le Muséum national d'histoire naturelle en tant qu'ensemble d'éléments naturels exceptionnels.
 Forêt de Tronçais :
 Chênes jumeaux, circonférence : 5,10 m et 4,45 m, âge ~ 400 ans (parcelle 137)
 Chêne de Montaloyer, circonférence : 5,45 m, âge ~ 400 ans (parcelle 279)
@@ -599,38 +654,265 @@
 Chêne carré, circonférence : 6,44 m, âge : ~ 300 ans (parcelle 215)
 Chêne Émile Guillaumin, circonférence : 3,90 m, âge ~ 300 ans (parcelle 176)
 Chêne Charles-Louis Philippe, circonférence : 4,70 m, âge : ~ 300 ans (parcelle 177)
-Chêne de la Résistance, circonférence : 3,70 m, âge ~ 300 ans (parcelle 235)[6]
-Chêne Stebbing II, circonférence : 4,60 m, âge ~ 300 ans (parcelle 227).
-Ardèche
-Cantal
-Condat : le hêtre roi des Gaubert et Gaulis, 3,15 m de circonférence, 43 m de haut
+Chêne de la Résistance, circonférence : 3,70 m, âge ~ 300 ans (parcelle 235)
+Chêne Stebbing II, circonférence : 4,60 m, âge ~ 300 ans (parcelle 227).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cantal</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Condat : le hêtre roi des Gaubert et Gaulis, 3,15 m de circonférence, 43 m de haut
 Neussargues en Pinatelle : le hêtre  de "lou deime"  de CHAVAGNAC  5,35m  de circonférence
 Raulhac : tilleul de Sully d'âge estimé à 400 ans[Quand ?], 11,00 m de circonférence
 Saint-Simon : tilleul de Sully d'âge estimé à 400 ans[Quand ?], 11,00 m de circonférence
-Vézac : plusieurs arbres dans le parc-arboretum du château de Caillac, jardin inscrit à l'IMH en 1997
-Drôme
-Chastel-Arnaud : châtaignier vieux de 700 ans 9,30 mètres de circonférence, hauteur de 15 m, une ramure de 22 m de diamètre , labellisé « Arbre remarquable de France » en 2003[7].
+Vézac : plusieurs arbres dans le parc-arboretum du château de Caillac, jardin inscrit à l'IMH en 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Drôme</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Chastel-Arnaud : châtaignier vieux de 700 ans 9,30 mètres de circonférence, hauteur de 15 m, une ramure de 22 m de diamètre , labellisé « Arbre remarquable de France » en 2003.
 Montchenu : chêne, vieux de trois siècles
-Saint-Martin-en-Vercors : tilleul planté sur ordre de Sully en 1597
-Haute-Loire
-Haute-Savoie
-Isère
-Chichilianne : Epicea en symbiose sur un saule[10]
-Saint-Aupre : Le seul Tilleul de Sully officiellement reconnu de nos jours en Isère[11]
+Saint-Martin-en-Vercors : tilleul planté sur ordre de Sully en 1597</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Isère</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Chichilianne : Epicea en symbiose sur un saule
+Saint-Aupre : Le seul Tilleul de Sully officiellement reconnu de nos jours en Isère
 Réaumont : Tilleul sur la place du village planté en1390, le plus vieil arbre de l'Isère (labellisé « Arbre Remarquable de France » en 2000)
 Venon : Chêne de Venon, chêne âgé de ~300 ans, 18 mètres de haut, 5 mètres de circonférence (labellisé « Arbre Remarquable de France » en 2017)
 Saint-Martin-le-Vinoux : Magnolia grandifolia de la Casamaures (labellisé « Arbre Remarquable de France » en 2007)
 Chimilin : le Tilleul tricentenaire de Meudenin (labellisé « Arbre Remarquable de France » en 2010)
-Vercors : l'Arbre Taillé de la plaine de La Queyrie est un pin à crochet emblématique des Hauts-Plateaux du Vercors[11]
-Loire
+Vercors : l'Arbre Taillé de la plaine de La Queyrie est un pin à crochet emblématique des Hauts-Plateaux du Vercors</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Loire</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Innimond, Tilleul de Sully
 			Chêne de Pressembois à Venon
 			Gros tilleul de Samoëns
-Puy-de-Dôme
-Saint-Étienne-des-Champs : chêne à la grange, lieu-dit « Chez Jally », labellisé « Arbre remarquable de France » par l’association A.R.B.R.E.S. en 2001[13].
-Saint-Sauveur-la-Sagne : tilleul de Sully, classé « Arbre Remarquable » par le Muséum national d'histoire naturelle, en 1997[14].
-Rhône
-Arnas : Cèdre du parc du Château de Longsard circonférence : 7,83 m à 1,50 m du sol hauteur 28 à 30 m labellisé « Arbre remarquable de France » en 2012
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Puy-de-Dôme</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Saint-Étienne-des-Champs : chêne à la grange, lieu-dit « Chez Jally », labellisé « Arbre remarquable de France » par l’association A.R.B.R.E.S. en 2001.
+Saint-Sauveur-la-Sagne : tilleul de Sully, classé « Arbre Remarquable » par le Muséum national d'histoire naturelle, en 1997.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Rhône</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Arnas : Cèdre du parc du Château de Longsard circonférence : 7,83 m à 1,50 m du sol hauteur 28 à 30 m labellisé « Arbre remarquable de France » en 2012
 Brindas : chêne pédonculé labellisé « Arbre remarquable de France » en avril 2007. Age : 150 ans environ circonférence de 3,87 m hauteur de 18 m
 Limonest : Chêne porte-gui circonférence à 1,3 m du sol en mars 2015 : 3,60 m hauteur : 17,5 m âge estimé : 250 ans
 Lyon :
@@ -638,66 +920,595 @@
 Oranger des Osages, circonférence : 3,70 m à 1,3 m du sol en 2014, hauteur estimée : 12 m, âgé estimé : plus de 100 ans
 Érable de Cappadoce, circonférence : 3,20 m à 1,3 m du sol en 2014, hauteur : 26 m
 Chêne à gros fruits d'Amérique du Nord, circonférence à 1,3 m du sol : 4,4 m
-Cyprès chauve, circonférence : 5,45 m à 1,3 m du sol en 2014, hauteur : 20,5 m
-Savoie
-Chambéry : Ptérocaryer du Caucase du parc du Verney.
-Bourgogne-Franche-Comté
-Côte-d'Or
-Collonges-lès-Bévy : tilleul de Sully
+Cyprès chauve, circonférence : 5,45 m à 1,3 m du sol en 2014, hauteur : 20,5 m</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Auvergne-Rhône-Alpes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Savoie</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Chambéry : Ptérocaryer du Caucase du parc du Verney.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Côte-d'Or</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Collonges-lès-Bévy : tilleul de Sully
 Magny-lès-Aubigny : tilleul de Sully
 Mavilly-Mandelot : Cormier, 4,50 m de circonférence
 Planay : tilleul de Sully, 7,50 m de circonférence
-Veilly : Tilleul de Sully, 25 m de hauteur et 10 m de circonférence
-Doubs
-Étrappe : deux tilleuls plantés pendant la Révolution française
+Veilly : Tilleul de Sully, 25 m de hauteur et 10 m de circonférence</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Doubs</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Étrappe : deux tilleuls plantés pendant la Révolution française
 La Grange : tilleul vieux de 600 ans
-Rigney : trois chênes sessiles (quercus petraea), âgés d'environ 300 ans, plantés sur l'ancien champ de foire du village sous Louis XIV.
-Haute-Saône
-Bresilley : vieux chêne, tronc de 8 m de circonférence, aurait été planté en 1640. À l'Assomption, on y déposait une statuette de la Vierge, qui finissait par être engloutie par la croissance de l'arbre. Huit Vierges ont déjà été englouties !
-Jura
-Bracon : tilleul de La Grange-Sauvaget
+Rigney : trois chênes sessiles (quercus petraea), âgés d'environ 300 ans, plantés sur l'ancien champ de foire du village sous Louis XIV.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Haute-Saône</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Bresilley : vieux chêne, tronc de 8 m de circonférence, aurait été planté en 1640. À l'Assomption, on y déposait une statuette de la Vierge, qui finissait par être engloutie par la croissance de l'arbre. Huit Vierges ont déjà été englouties !</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Jura</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Bracon : tilleul de La Grange-Sauvaget
 Chevigny : chêne de la Manche
-Forêt de la Joux : « Sapin Président »[15]
-Nièvre
-Dornecy : Champs de la Ville, tilleul de Sully
-Glux-en-Glenne/Saint-Léger-sous-Beuvray : les queulles de la hêtraie de la Terrasse sur le mont Beuvray dans le Morvan
-Saône-et-Loire
-Lugny : hêtre pourpre bicentenaire du parc Monseigneur Joseph Robert, haut de 30 mètres (labellisé « Arbre Remarquable de France » en juin 2018)[16]
+Forêt de la Joux : « Sapin Président »</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Nièvre</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Dornecy : Champs de la Ville, tilleul de Sully
+Glux-en-Glenne/Saint-Léger-sous-Beuvray : les queulles de la hêtraie de la Terrasse sur le mont Beuvray dans le Morvan</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Saône-et-Loire</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Lugny : hêtre pourpre bicentenaire du parc Monseigneur Joseph Robert, haut de 30 mètres (labellisé « Arbre Remarquable de France » en juin 2018)
 Martailly-lès-Brancion : orme bicentenaire de (labellisé « Arbre Remarquable de France » en juin 2000)
 La Petite-Verrière : les douglas de la Roche Guillaume, douglas d’exception : les premiers plantés en Morvan, vers 1880, (labellisés « Arbres remarquables de France » en octobre 2007)
 Saint-Germain-lès-Buxy : chêne pédonculé poussant au bas du parc du château (labellisé « Arbre remarquable » en novembre 2011)
-Saint-Léger-sous-Beuvray/Glux-en-Glenne : les queulles de la hêtraie de la Terrasse sur le mont Beuvray dans le Morvan
-Yonne
-Blannay : Le Rosny, tilleul de Sully
-Cézy : platane surnommé les Six Frères[17]
+Saint-Léger-sous-Beuvray/Glux-en-Glenne : les queulles de la hêtraie de la Terrasse sur le mont Beuvray dans le Morvan</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Yonne</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Blannay : Le Rosny, tilleul de Sully
+Cézy : platane surnommé les Six Frères
 Perceneige : Plessis-du-Mée, tilleul de Sully
 La Postolle : tilleul de Sully Rosny, 1598 (Édit de Nantes)
 Sens : sequoia, 1865
-Sougères-en-Puisaye : hameau de Pesselières, tilleul de Sully, 1598'
-Territoire de Belfort
-Fontaine : tilleul de Turenne
+Sougères-en-Puisaye : hameau de Pesselières, tilleul de Sully, 1598'</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Territoire de Belfort</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fontaine : tilleul de Turenne
 Grandvillars : tilleul
 			Le hêtre pourpre bicentenaire visible dans le parc Monseigneur Joseph Robert à Lugny, en Haut-Mâconnais, labellisé en 2018 « Arbre remarquable de France ».
 			Un arbre majestueux planté sous le règne du roi Henri IV (vers 1610) : le tilleul de Veilly.
 			Un arbre sous lequel, le 29 décembre 1674, le maréchal de Turenne s’est arrêté, avant de remporter le combat face aux Impériaux, à Mulhouse : le tilleul de Fontaine.
-Bretagne
-Les principaux arbres remarquables en Bretagne sont[18],[19] :
-Côtes-d'Armor
-Bulat-Pestivien : Chêne de Tronjoly 12 m de circonférence, entre 1 500 et 1 700 ans[Quand ?]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principaux arbres remarquables en Bretagne sont, :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Côtes-d'Armor</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Bulat-Pestivien : Chêne de Tronjoly 12 m de circonférence, entre 1 500 et 1 700 ans[Quand ?]
 Saint-Maudez : If, 8,8 m de circonférence, sans doute 1 300 ans[Quand ?]
 Yvignac : If millénaire près de l'église d'Yvignac-la-Tour
-Dinan : Magnolia Soulangeana 15 m d envergure, planté en 1850
-Finistère
-Fouesnant : Arbre girafe (chêne pédonculé), vieux de 200 ans, élu jeudi 24 novembre 2011 « Arbre de l’année » par le public du premier concours du genre en France[20]. Il a une circonférence de 2,80 m et mesure 18 m de haut
+Dinan : Magnolia Soulangeana 15 m d envergure, planté en 1850</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Finistère</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Fouesnant : Arbre girafe (chêne pédonculé), vieux de 200 ans, élu jeudi 24 novembre 2011 « Arbre de l’année » par le public du premier concours du genre en France. Il a une circonférence de 2,80 m et mesure 18 m de haut
 Locmaria-Berrien : deux Chênes pédonculés
-Lycée agricole de Suscinio : jardin botanique de Suscino : tulipiers de Virginie, hêtre commun, pins de Monterey, ptérocarya du Caucase et charmes séculaires[21]
-Pont-l'Abbé : le châtaignier de Kerseoc'h, peut-être âgé de 1 200 ans, mesure 14 m de circonférence[22].
-Ille-et-Vilaine
-Forêt de Paimpont, lieu-dit Val sans retour : L'arbre d'or est un tronc de châtaignier recouvert de 5 000 feuilles d'or par le sculpteur François Davin et 250 bénévoles
+Lycée agricole de Suscinio : jardin botanique de Suscino : tulipiers de Virginie, hêtre commun, pins de Monterey, ptérocarya du Caucase et charmes séculaires
+Pont-l'Abbé : le châtaignier de Kerseoc'h, peut-être âgé de 1 200 ans, mesure 14 m de circonférence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Ille-et-Vilaine</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Forêt de Paimpont, lieu-dit Val sans retour : L'arbre d'or est un tronc de châtaignier recouvert de 5 000 feuilles d'or par le sculpteur François Davin et 250 bénévoles
 Vitré : thuya géant du Jardin du parc.
-Melesse : le chêne du Plessis est un arbre de plus de 7 m de circonférence. Il est officiellement daté de 300 ans mais il est probablement plus vieux.
-Morbihan
-Concoret : chêne à Guillotin, en bordure de la forêt de Paimpont, 9,60 m de circonférence, probablement 1 000 ans[Quand ?][23] (labellisé « Arbre remarquable de France » en 2017);
+Melesse : le chêne du Plessis est un arbre de plus de 7 m de circonférence. Il est officiellement daté de 300 ans mais il est probablement plus vieux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bretagne</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Morbihan</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Concoret : chêne à Guillotin, en bordure de la forêt de Paimpont, 9,60 m de circonférence, probablement 1 000 ans[Quand ?] (labellisé « Arbre remarquable de France » en 2017);
 Le Guerno : platane d'Orient du Parc zoologique du château de Branféré, âge : ~200 ans (labellisé « Arbre remarquable de France » en 2001)
 Lignol : chêne pédonculé de Kervené, âge 200 à 300 ans (labellisé « Arbre remarquable de France » en 2001)
 Plouray : deux chêne pédonculés de Rosterc'h, âge plus de 500 et plus de 300 ans (labellisés « Arbre remarquable de France » en 2004)
@@ -708,67 +1519,563 @@
 			Thuya de Vitré (extérieur) (Ille-et-Vilaine).
 			Thuya de Vitré (intérieur).
 			Chêne millénaire du Pouldu (Morbihan)
-Centre-Val de Loire
-Cher
-La Chapelle-Montlinard : Chêne [24],[25]
-Eure-et-Loir
-Le  département regroupe, en 2022, huit arbres labellisés « Arbre remarquable de France », listés dans le tableau ci-dessous.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Cher</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>La Chapelle-Montlinard : Chêne ,</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Eure-et-Loir</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le  département regroupe, en 2022, huit arbres labellisés « Arbre remarquable de France », listés dans le tableau ci-dessous.
 D'autres spécimens sont également remarqués et font, éventuellement, l'objet d'une demande de labellisation en cours. Ils sont listés dans l'article détaillé ci-dessus.
-Indre
-Bouges-le-Château : Arbres du château [25]
-La Buxerette : Le chêne rond, arbre planté vers 1880. Tronc court, ramure tout en rondeur d'où son nom circonférence du tronc : 4,80 m[33];
-La Motte-Feuilly : If [25]
-Nohant-Vic : Cinq arbres du domaine de George Sand [24],[25] dont deux cèdres plantés à la naissance des enfants de George Sand un ginkgo biloba, un sophora et un if;
-Saint-Civran : Chêne presque millénaire, consacré plus bel arbre de l'année en 2013 par le magazine Terre sauvage, situé entre le hameau de La Bitte et celui de Chassingrimont[34].
-Vicq-Exemplet : chêne de la ferme des Trois Chênes[24],[25]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Indre</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bouges-le-Château : Arbres du château 
+La Buxerette : Le chêne rond, arbre planté vers 1880. Tronc court, ramure tout en rondeur d'où son nom circonférence du tronc : 4,80 m;
+La Motte-Feuilly : If 
+Nohant-Vic : Cinq arbres du domaine de George Sand , dont deux cèdres plantés à la naissance des enfants de George Sand un ginkgo biloba, un sophora et un if;
+Saint-Civran : Chêne presque millénaire, consacré plus bel arbre de l'année en 2013 par le magazine Terre sauvage, situé entre le hameau de La Bitte et celui de Chassingrimont.
+Vicq-Exemplet : chêne de la ferme des Trois Chênes,
 			Le chêne rond de La Buxerette.
 			Deux cèdres du domaine de George Sand.
-Indre-et-Loire
-Les Essards : chêne de la Ronde
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Indre-et-Loire</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Essards : chêne de la Ronde
 Tours : cèdre du Liban situé dans la cour du musée des beaux-arts
 Veigné : châtaignier de la Championnière.
 			Cèdre du musée des Beaux-Arts à Tours.
 			Châtaignier de la Championnière à Veigné.
-Loir-et-Cher
-Château de Selles-sur-Cher : cèdre du Liban[35].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Loir-et-Cher</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Château de Selles-sur-Cher : cèdre du Liban.
 			Cèdre du Château de Selles-sur-Cher
-Loiret
-La Chapelle-Saint-Sépulcre : Chêne du lieu-dit les Pitons, 400 ans[Quand ?]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Centre-Val de Loire</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Loiret</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>La Chapelle-Saint-Sépulcre : Chêne du lieu-dit les Pitons, 400 ans[Quand ?]
 Ingrannes : Chêne de l'arboretum des Grandes Bruyères, au moins 200 ans
-Olivet : Cèdre du Couasnon
-Corse
-Corse-du-Sud
-Argiusta-Moriccio : Le grand chêne vert de Matachjina (U Liccionu di Matachjina en corse), multi-centenaire est nommé en 2020  pour le concours français de l'Arbre de l'Année[36].
-Filitosa : Olivier d'Europe millénaire du site préhistorique (il aurait plus de 2 000 ans, ce qui lui vaut de disputer à l'olivier millénaire de Roquebrune-Cap-Martin le titre de l'arbre le plus vieux de France)[37]. Il est nommé en 2016 pour le concours français de l'Arbre de l'Année[38] et labellisé Arbre remarquable de France en 2017[39].
+Olivet : Cèdre du Couasnon</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Corse</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Corse-du-Sud</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Argiusta-Moriccio : Le grand chêne vert de Matachjina (U Liccionu di Matachjina en corse), multi-centenaire est nommé en 2020  pour le concours français de l'Arbre de l'Année.
+Filitosa : Olivier d'Europe millénaire du site préhistorique (il aurait plus de 2 000 ans, ce qui lui vaut de disputer à l'olivier millénaire de Roquebrune-Cap-Martin le titre de l'arbre le plus vieux de France). Il est nommé en 2016 pour le concours français de l'Arbre de l'Année et labellisé Arbre remarquable de France en 2017.
 Levie : Châtaignier millénaire sur la route du site préhistorique de Cucuruzzu.
-Sartène : Chêne-liège estimé de 100 à 200 ans est nommé en 2019  pour le concours français de l'Arbre de l'Année[40].
-Haute-Corse
-Ghisonaccia
-Le Pistachier lentisque, est élu arbre de l'année "Prix du Jury 2011[20]" par l’écrivain Didier van Cauwelaert, président du jury et auteur du "Journal intime d’un arbre". Il est d'un âge estimé à environ 1 000 ans dont certaines de ses branches atteignent 1,50 m de circonférence, presque autant que le tronc (1,90 m), avec son houppier couvrant une surface de près de 80 m2.
-Le Chêne liège, l'arbre-oiseau « Arburacellu » est élu arbre de l'année "Prix du Public 2018"[41] (3 053 votes sur 12 000 votes) ainsi que 4e finaliste du concours « Arbre Européen de l'année 2019 »[42] ( 29 140 voix sur 311 772 ). C'est un arbre d'un âge modeste de 200 ans, sculpté par la nature.
+Sartène : Chêne-liège estimé de 100 à 200 ans est nommé en 2019  pour le concours français de l'Arbre de l'Année.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Corse</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Haute-Corse</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Ghisonaccia
+Le Pistachier lentisque, est élu arbre de l'année "Prix du Jury 2011" par l’écrivain Didier van Cauwelaert, président du jury et auteur du "Journal intime d’un arbre". Il est d'un âge estimé à environ 1 000 ans dont certaines de ses branches atteignent 1,50 m de circonférence, presque autant que le tronc (1,90 m), avec son houppier couvrant une surface de près de 80 m2.
+Le Chêne liège, l'arbre-oiseau « Arburacellu » est élu arbre de l'année "Prix du Public 2018" (3 053 votes sur 12 000 votes) ainsi que 4e finaliste du concours « Arbre Européen de l'année 2019 » ( 29 140 voix sur 311 772 ). C'est un arbre d'un âge modeste de 200 ans, sculpté par la nature.
 			Châtaignier millénaire de Levie
 			Lentisque remarquable de Ghisonaccia
 			Chêne liège de Ghisonaccia. L'arbre-oiseau « Arburacellu »
-Monticello : L'olivier de Monticello, situé près de la mairie, est labellisé Arbre remarquable de France en 2015[39].
-Oletta : L’olivier d’Oletta estimé entre 800 et 1000 ans est nommé en 2013 pour le concours français de l'Arbre de l'Année[43].
-Pianello : Le Châtaignier ou "Arbre à pain de Pianello" d'une auteur de 12 m, d'une circonférence de 15 m et d'un âge estimé entre 800 et 1 000 ans est élu "Prix du jury 2014"[44].
-Grand Est
-Ardennes
-Chartreuse du Mont-Dieu : chêne de Montpy : 30 m de hauteur, 4,30 m de circonférence
-Aube
-Chavanges :3 tilleuls. tricentenaire, autour d'un calvaires furent labelisés arbres remarquables en 2017.
+Monticello : L'olivier de Monticello, situé près de la mairie, est labellisé Arbre remarquable de France en 2015.
+Oletta : L’olivier d’Oletta estimé entre 800 et 1000 ans est nommé en 2013 pour le concours français de l'Arbre de l'Année.
+Pianello : Le Châtaignier ou "Arbre à pain de Pianello" d'une auteur de 12 m, d'une circonférence de 15 m et d'un âge estimé entre 800 et 1 000 ans est élu "Prix du jury 2014".</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Ardennes</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Chartreuse du Mont-Dieu : chêne de Montpy : 30 m de hauteur, 4,30 m de circonférence</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Aube</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Chavanges :3 tilleuls. tricentenaire, autour d'un calvaires furent labelisés arbres remarquables en 2017.
 Coursan-en-Othe : tulipier du parc de la mairie (labélisé « Arbre Remarquable de France » en juillet 2015). L'âge de cet arbre a été estimé par l'ONF à 350 ans, ce qui pourrait en faire aujourd'hui le plus vieux tulipier de France.
 Pont-Sainte-Marie : tilleul en cépée du parc Lebocey (labélisé en 2018)
-Vosnon : chêne sessile dit "chêne du pied-cornier" en forêt d'Othe. Cet arbre aurait 800 ans selon l'ONF
-Haute-Marne
-Aubigny-sur-Badin : gros tilleul
-Marne
-Verzy : Fau de Verzy
+Vosnon : chêne sessile dit "chêne du pied-cornier" en forêt d'Othe. Cet arbre aurait 800 ans selon l'ONF</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Haute-Marne</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Aubigny-sur-Badin : gros tilleul</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Marne</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Verzy : Fau de Verzy
 Réveillon : parc du château, un catalpa qui a marcotté
 Val-de-Vesle : Marronnier de la liberté Planté en 1848, il a une circonférence de 4,20 m, mesure 18 m de haut et a une envergure de 24 m de longueur pour 24 m de largeur. Il a été labellisé "Arbre Remarquable de France" en 2019
-Trois-Fontaine-l'Abbaye: Le Magnolia, âge estimé 110ans, hauteur 15m dans le parc de l'Abbaye de Trois-Fontaines
-Meurthe-et-Moselle
-Amance : cèdre du Liban[45]
+Trois-Fontaine-l'Abbaye: Le Magnolia, âge estimé 110ans, hauteur 15m dans le parc de l'Abbaye de Trois-Fontaines</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Meurthe-et-Moselle</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Amance : cèdre du Liban
 Chambley-Bussières : tilleul
 Champigneulles : hêtres tortillards de l'arboretum de la maison forestière de Bellefontaine
 Nancy
@@ -776,15 +2083,91 @@
 magnolia de Soulange du Parc Sainte-Marie
 un hêtre pourpre du Parc de la Pépinière
 Puxe : arbres du château
-Saint-Ail : séquoia
-Meuse
-Belleville-sur-Meuse : hêtre de la forêt de Verdun, rescapé de la Première Guerre mondiale, parcelle forestière 569[46]
+Saint-Ail : séquoia</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Meuse</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Belleville-sur-Meuse : hêtre de la forêt de Verdun, rescapé de la Première Guerre mondiale, parcelle forestière 569
 Damvillers : saule argenté, circonférence de 8,04 m
 Verdun :
 deux platanes de la place Saint-Nicolas, houppiers de 25 m à 30 m d’envergure, circonférence des troncs : 5,97 et 5,10 m
-deux platanes du parc du Pré l’Évêque, 3 m de circonférence pour l'un et 4,52 m, pour l'autre au port asymétrique.
-Moselle
-Bettange : l'orme champêtre de (1793)
+deux platanes du parc du Pré l’Évêque, 3 m de circonférence pour l'un et 4,52 m, pour l'autre au port asymétrique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Moselle</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bettange : l'orme champêtre de (1793)
 Bining : « Gros Chêne »
 Châtel-Saint-Germain : hêtre des batailles
 Dornot : if du cimetière de 3,60 m de circonférence
@@ -801,45 +2184,236 @@
 			Saint-Avold, chêne des Sorcières.
 			Waldweistroff, chêne tricentenaire.
 			hêtre pourpre du parc de la Pépinière de Nancy. Coupé en 2023 car dépérissant.
-Bas-Rhin
-Forêt de Haguenau : gros-chêne
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Bas-Rhin</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Forêt de Haguenau : gros-chêne
 Niederbronn-les-Bains : Séquoia géant du Moulin (propriété privée), circonférence d'environ 7,20 m
 Ottrott : Séquoia géant du parc du Windeck, le deuxième plus gros arbre d'Alsace avec plus de 10 m de tour de tronc à 1,50 m du sol
 Reinhardsmunster : hêtre
 Sarre-Union : Cormier, rue de la Poste, arbre remarquable par sa rareté et ses dimensions.
 Schœnenbourg : Tilleul arbre imposant de plus de 350 ans[Quand ?].
-Walbourg : Orme lisse, 7,60 m de circonférence pour plus de 250 ans[Quand ?], à l'entrée est du village.
-Haut-Rhin
-Bergheim : Tilleul, arbre de plus de 700 ans (une fête s'y est déroulée en l'an 1300)
+Walbourg : Orme lisse, 7,60 m de circonférence pour plus de 250 ans[Quand ?], à l'entrée est du village.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Haut-Rhin</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Bergheim : Tilleul, arbre de plus de 700 ans (une fête s'y est déroulée en l'an 1300)
 Colmar : Arbre de Judée (Cercis siliquastrum), situé dans la cour Waldner-Stephan, il a près de 250 ans
 Issenheim : duo de platanes de la place
 Oberlarg : Vieux chêne forestier plus de 500 ans[Quand ?]
 Ribeauvillé : Douglas dont la taille approche les 62,5 m pour un individu et les autres entre 50 et 59 m. Le plus grand individu peut, être, considéré comme le, ou l'un des plus grands arbres de France, toutes espèces confondues;
-Heimsbrunn : Chêne St-Louis 700 ans.
-Vosges
-Saint-Dié-des-Vosges : tilleul, datant du XIVe siècle[47].
+Heimsbrunn : Chêne St-Louis 700 ans.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Grand Est</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Vosges</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saint-Dié-des-Vosges : tilleul, datant du XIVe siècle.
 			Séquoia du parc des Frères de la Charité à Ottrott.
 			Tilleul de Saint-Dié-des-Vosges.
-Hauts-de-France
-Aisne
-Beuvardes : chêne de la ferme d'Artois (labellisés « Arbres remarquables de France »).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Aisne</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Beuvardes : chêne de la ferme d'Artois (labellisés « Arbres remarquables de France »).
 Bosmont-sur-Serre : Arbre de la liberté, tilleul planté en 1790 élagué sévèrement en 2014.
 Brasles : sophora pleureur (labellisés « Arbres remarquables de France »)
 La Capelle : chêne « Le Capellois », circonférence à la base : 5,25 m
 Fresnoy-le-Grand : if (labellisés « Arbres remarquables de France »)
-Jaulgonne : chêne sessile, circonférence à 1,30 m du sol : 5,45 m, âge estimé : 250-300 ans. Il a perdu une branche maîtresse[48].
-Rozoy-Bellevalle : chêne Jean de La Fontaine, 16 m de haut, 7 m de circonférence, serait âgé de 400 ans[49].
+Jaulgonne : chêne sessile, circonférence à 1,30 m du sol : 5,45 m, âge estimé : 250-300 ans. Il a perdu une branche maîtresse.
+Rozoy-Bellevalle : chêne Jean de La Fontaine, 16 m de haut, 7 m de circonférence, serait âgé de 400 ans.
 Saint-Christophe-à-Berry : Marronnier (labellisés « Arbres remarquables de France »).
-Vendières : Saules du domaine de Pomesson (labellisés « Arbres remarquables de France »)
-Nord
-Aubers: Tilleul du Joncquoy
+Vendières : Saules du domaine de Pomesson (labellisés « Arbres remarquables de France »)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Nord</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aubers: Tilleul du Joncquoy
 Baisieux : Hêtre pleureur du parc de la mairie
 Bellaing : Peuplier noir
 Cambrai : marronnier
 Croix : Hêtre pourpre du parc de la mairie
-Houplin-Ancoisne : 281 platanes, sur 5 km de berge du canal de Seclin labellisés « Arbres remarquables de France » en 2016[50]
+Houplin-Ancoisne : 281 platanes, sur 5 km de berge du canal de Seclin labellisés « Arbres remarquables de France » en 2016
 Lambersart : Marronnier du clos Saint-Pierre
-Lauwin-Planque : Hêtre pourpre de l'église Saint-Ranulphe.- (Abattu en Août 2019[51]).
+Lauwin-Planque : Hêtre pourpre de l'église Saint-Ranulphe.- (Abattu en Août 2019).
 Lille :
 Marronnier du jardin des Dondaines, élagué sévèrement en 2015.
 Platane du square Ramponneau
@@ -851,37 +2425,115 @@
 Villeneuve-d'Ascq : quartier Breucq, Hêtre et prunier du parc Jean Desmarets
 			Aubers, Tilleul du Joncquoy
 			Houplin-Ancoisne, platanes du canal de Seclin.
-Oise
-Berneuil-en-Bray :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Oise</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Berneuil-en-Bray :
 chêne du château d'Auteuil
 Peuplier noir
-Chaumont-en-Vexin : platane de la place de la Foulerie, 30 mètres de hauteur, 7 mètres de circonférence, ramure 450 m2, planté entre 1793 et 1805 à partir de graines rapportées de Syrie par le cardinal du Bellay (labellisé « Arbre Remarquable de France » en 2015[52]).
+Chaumont-en-Vexin : platane de la place de la Foulerie, 30 mètres de hauteur, 7 mètres de circonférence, ramure 450 m2, planté entre 1793 et 1805 à partir de graines rapportées de Syrie par le cardinal du Bellay (labellisé « Arbre Remarquable de France » en 2015).
 Forêt de Compiègne : Chêne de Saint-Jean, hauteur : 25 mètres, circonférence du tronc : plus de 8 mètres. Il serait âgé de 750 à 800 ans. En 2011, sa branche principale est tombée.
 Palais de Compiègne : Hêtre pourpre et chêne du parc
 Gerberoy : if
-Saint-Pierre-es-Champs : Tilleul de la colline Sainte Hélène. Cet arbre a obtenu le prix du jury du concours de l'arbre de l'année 2018[53].
+Saint-Pierre-es-Champs : Tilleul de la colline Sainte Hélène. Cet arbre a obtenu le prix du jury du concours de l'arbre de l'année 2018.
 Château de Troissereux : platanes.
 			Platane de Chaumont-en-Vexin.
 			Chêne de Saint-Jean de la Forêt de Compiègne.
-Pas-de-Calais
-Béthune : hêtre pourpre du lycée Blaringhem
-Beugin : érable champêtre dit « l'Arbre rond » (L'arbre remarquable de Beugin a été  foudroyé 14 octobre 2019)[54].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Béthune : hêtre pourpre du lycée Blaringhem
+Beugin : érable champêtre dit « l'Arbre rond » (L'arbre remarquable de Beugin a été  foudroyé 14 octobre 2019).
 Blendecques :
 tulipier et séquoias du parc de la mairie
 ginkgo biloba, 200 rue Louis-Pasteur
-Bomy : rotonde des Tilleuls[55]
-Clairmarais : chêne de la forêt de Clairmarais[56]
+Bomy : rotonde des Tilleuls
+Clairmarais : chêne de la forêt de Clairmarais
 Desvres : cépée de hêtre
 Doudeauville : buis de l'église
 Étaples : chêne pédonculé allée des sorbiers
 Hermaville : hêtre de l’Espace Loisirs
 Marquise : tilleul de l'église
-Quercamps : tilleul de la place[56]
+Quercamps : tilleul de la place
 Recques-sur-Hem : poiriers palissés
 Saint-Martin-lez-Tatinghem :
 saule doré, 20 rue Pasteur
 hêtre pleureur, 2 rue du capitaine Revel
-Saint-Omer : ginkgo biloba dans une propriété privée près du tribunal[56]
+Saint-Omer : ginkgo biloba dans une propriété privée près du tribunal
 Tilques : noyer noir d’Amérique du château d'Écou
 Le Touquet-Paris-Plage : frêne de la forêt du Touquet, avenue de la Dune-aux-Loups. L'arbre est atteint par la chalarose, maladie cryptogamique.
 Le Wast : marronnier de la place
@@ -891,8 +2543,47 @@
 			Deux poiriers en espalier_Recques -sur-Hem
 			Tilleul_ Arbre de la liberté-1848_Quercamps
 			Tilleul de l'église de Marquise
-Somme
-Amiens :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Hauts-de-France</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Somme</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amiens :
 Cèdre du Liban du parc de l'Hôtel de préfecture de la Somme, planté en 1756.
 Marronnier du square Saint-Denis, âgé de ~ 150 ans (labellisé « Arbre Remarquable de France » 2018).
 Parc du château de Montières :
@@ -907,12 +2598,12 @@
 			Alignement d'ifs du Cimetière de La Madeleine (Amiens).
 			Alignement de platanes de la rue Jean Jaurès.
 Argoules :
-gros tilleul qui serait un arbre de Sully (début XVIIe siècle) ou un arbre de la liberté (1792- 1793) classé monument naturel, le 8 janvier 1934[1]. Une tempête décapita sa ramure le 16 octobre 1987. Labellisé « arbre remarquable » en juin 2016 (hauteur : 13 m, circonférence : 5,2 m, en 2016)
+gros tilleul qui serait un arbre de Sully (début XVIIe siècle) ou un arbre de la liberté (1792- 1793) classé monument naturel, le 8 janvier 1934. Une tempête décapita sa ramure le 16 octobre 1987. Labellisé « arbre remarquable » en juin 2016 (hauteur : 13 m, circonférence : 5,2 m, en 2016)
 poirier de l'abbaye de Valloires : planté en 1756, ce qui en fait l'un des plus vieux de France.
 			Gros tilleul d'Argoules.
 			Vieux poirier de l'abbaye de Valloires.
 			Tilleul de Coigneux.
-Bouttencourt-sur-Bresle : deux platanes sur les pelouses du château de Monthières, classés monument naturel le 7 février 1934[1].
+Bouttencourt-sur-Bresle : deux platanes sur les pelouses du château de Monthières, classés monument naturel le 7 février 1934.
 Coigneux : tilleul qui aurait été planté dans les années 1660 par Turenne.
 Forêt de Crécy :
 le Beau à voir (hêtre)
@@ -925,18 +2616,18 @@
 Hêtre du Cygne
 l'Éclaireur (hêtre)
 l’Ermite (hêtre)
-les Frères ennemis, hêtre et chêne, soudés à la base, classés en 1903, tombés en 2018[57]
+les Frères ennemis, hêtre et chêne, soudés à la base, classés en 1903, tombés en 2018
 Hêtre du Hallot
-Hêtre Richard, 33 m de haut, 5,16 m de circonférence, âge : 390 ans[58]
+Hêtre Richard, 33 m de haut, 5,16 m de circonférence, âge : 390 ans
 Chêne du Président
-Chêne des Ramolleux, 27 mètres de haut, 5,55 mètres de circonférence, âge estimé 600 ans qui aurait été planté après la bataille de Crécy[59]
+Chêne des Ramolleux, 27 mètres de haut, 5,55 mètres de circonférence, âge estimé 600 ans qui aurait été planté après la bataille de Crécy
 le Remplaçant (hêtre)
 le Rescapé (Chêne)
-le Revenant (chêne), classé depuis 1904, canton de la Haute Loge, parcelle 260[58]
+le Revenant (chêne), classé depuis 1904, canton de la Haute Loge, parcelle 260
 le Royal (chêne)
 le Spectateur (Chêne)
 Le Superbe (Chêne)
-le Vénérable (hêtre)[60]…
+le Vénérable (hêtre)…
 			Chêne des Ramolleux
 			Le Royal.
 			Le hêtre Richard.
@@ -944,36 +2635,112 @@
 			Le Revenant.
 			Le Bien venant.
 			Le Vénérable.
-Ham : tilleul qui aurait été planté dans l'enceinte du château de Ham en 1793 ou 1795, arbre de la liberté ?  Louis-Napoléon Bonaparte fut emprisonné au château de Ham de 1840 à 1846 après l'échec de sa tentative de soulèvement de la garnison de Boulogne-sur-Mer. De retour sur les lieux de sa détention, le 26 octobre 1853, l'empereur Napoléon III, l'impératrice Eugénie et leur suite, prirent une collation sous le vieux tilleul de la cour du château[61]. Ce tilleul a été victime de la destruction du château en 1917. Bien que son tronc fût calciné, ses racines encore vivantes ont permis à un rejet de lui faire reprendre vigueur.
+Ham : tilleul qui aurait été planté dans l'enceinte du château de Ham en 1793 ou 1795, arbre de la liberté ?  Louis-Napoléon Bonaparte fut emprisonné au château de Ham de 1840 à 1846 après l'échec de sa tentative de soulèvement de la garnison de Boulogne-sur-Mer. De retour sur les lieux de sa détention, le 26 octobre 1853, l'empereur Napoléon III, l'impératrice Eugénie et leur suite, prirent une collation sous le vieux tilleul de la cour du château. Ce tilleul a été victime de la destruction du château en 1917. Bien que son tronc fût calciné, ses racines encore vivantes ont permis à un rejet de lui faire reprendre vigueur.
 Hautvillers-Ouville : tilleul des croisettes. On déposait une croisette au passage des convois mortuaires se rendant au cimetière.
 Lucheux :
-Tilleul « arbre aux épousailles » (arbre creux), ce serait deux vieux tilleuls emmêlés, ou un seul tilleul ayant évolué ainsi au cours du temps cet arbre daterait du début des années 1600 selon certains ou serait un arbre de la liberté, planté en 1848. Il a été classé monument naturel, le 16 décembre 1930[62].
-« L’arbre curieux » ou « la porte cochère » dans le bois de Watron, classé monument naturel le 19 février 1934[1]. Hêtre formé par la ligature de deux troncs voisins qui a été décapité par une tempête en 1991. Sa base vermoulue, haute de 5 mètres, était encore visible en 1998, ce n'est plus qu’une curieuse souche vermoulue[63].
-Longueval : parc du Mémorial national sud-africain du bois Delville, le Dernier Arbre est un charme, seul arbre ayant survécut à la bataille du bois Delville, en 1916[64].
+Tilleul « arbre aux épousailles » (arbre creux), ce serait deux vieux tilleuls emmêlés, ou un seul tilleul ayant évolué ainsi au cours du temps cet arbre daterait du début des années 1600 selon certains ou serait un arbre de la liberté, planté en 1848. Il a été classé monument naturel, le 16 décembre 1930.
+« L’arbre curieux » ou « la porte cochère » dans le bois de Watron, classé monument naturel le 19 février 1934. Hêtre formé par la ligature de deux troncs voisins qui a été décapité par une tempête en 1991. Sa base vermoulue, haute de 5 mètres, était encore visible en 1998, ce n'est plus qu’une curieuse souche vermoulue.
+Longueval : parc du Mémorial national sud-africain du bois Delville, le Dernier Arbre est un charme, seul arbre ayant survécut à la bataille du bois Delville, en 1916.
 Rambures, parc du château :
 vieux frêne
 Murier blanc de Chine
 Noyer noir d'Amérique
 Séquoïa géant, rapporté des États-Unis par le Marquis de La Roche-Fontenilles en 1787
-Saint-Léger-lès-Domart : Arbre de la Croix de Notre-Dame de Bonne-Garde, tilleul à petites feuilles, au tronc court (2 m), circonférence du tronc 5,55 mètres, hauteur 18 mètres, âge estimé 660 ans[65]. Arbre classé monument naturel, le 24 février 1934[1]. .
+Saint-Léger-lès-Domart : Arbre de la Croix de Notre-Dame de Bonne-Garde, tilleul à petites feuilles, au tronc court (2 m), circonférence du tronc 5,55 mètres, hauteur 18 mètres, âge estimé 660 ans. Arbre classé monument naturel, le 24 février 1934. .
 			Vieux tilleul du château de Ham.
 			Le Dernier Arbre, Mémorial national sud-africain du bois Delville à Longueval.
 			Arbres des épousailles de Lucheux.
 			Arbre de la croix à Saint-Léger-lès-Domart.
 			Tilleul des croisettes à Hautvillers-Ouville.
-Île-de-France
-Essonne
-Ballancourt-sur-Essonne : Chateau du Saussay: Platanes[27]
-Boutigny-sur-Essonne : Tilleul[27]
-Bures-sur-Yvette : Chêne du Petit-Launay[27]
-Chamarande : Platane[27]
-Courson-Monteloup : Sequoia[27]
-Juvisy-sur-Orge : Sophora du Japon[27]
-Mennecy : Sequoias[27]
-Morsang-sur-Orge : Platane[27]
-Le Val-Saint-Germain : Platane[27]
-Hauts-de-Seine
-Châtenay-Malabry : arboretum de la Vallée-aux-Loups :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Essonne</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Ballancourt-sur-Essonne : Chateau du Saussay: Platanes
+Boutigny-sur-Essonne : Tilleul
+Bures-sur-Yvette : Chêne du Petit-Launay
+Chamarande : Platane
+Courson-Monteloup : Sequoia
+Juvisy-sur-Orge : Sophora du Japon
+Mennecy : Sequoias
+Morsang-sur-Orge : Platane
+Le Val-Saint-Germain : Platane</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Hauts-de-Seine</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Châtenay-Malabry : arboretum de la Vallée-aux-Loups :
 Cèdre bleu pleureur de l'Atlas
 Chêne à feuilles de myrsine (Quercus myrsinifolia).
 Meudon :
@@ -981,8 +2748,47 @@
 Cèdre Redouté, cadeau de Joséphine de Beauharnais pour son professeur de dessin Pierre-Joseph Redouté.
 			Arboretum de la Vallée-aux-Loups, cèdre bleu pleureur de l'Atlas.
 			Arboretum de la Vallée-aux-Loups, chêne à feuilles de myrsine.
-Paris
-(En 2011 mise en ligne d'une carte des arbres remarquables 222 spécimens remarquables y ont été répertoriés, avec 80 essences d’arbres dominées par les platanes (36 sujets) et hêtres (18) retenus pour leur grand âge ou leur port exceptionnel[66])
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(En 2011 mise en ligne d'une carte des arbres remarquables 222 spécimens remarquables y ont été répertoriés, avec 80 essences d’arbres dominées par les platanes (36 sujets) et hêtres (18) retenus pour leur grand âge ou leur port exceptionnel)
 Robinier du square René-Viviani.
 Saule Pleureur centenaire du Square de l'Île-de-France sur l'île de la Cité
 Marronnier d'inde du square René-Le Gall
@@ -990,29 +2796,221 @@
 			Le robinier planté en 1601, réputé le plus vieil arbre de Paris.
 			Marronnier d'inde du square René-Le Gall
 			Orme de Saint-Gervais.
-Seine-et-Marne
-Champs-sur-Marne : If dit de Bossuet dans le parc du château (âgé de plus de 200 ans[Quand ?])
-Forêt de Fontainebleau : Chêne du Rocher Canon[67]
-Ozoir-la-Ferrière : Cèdre de Jussieu.
-Seine-Saint-Denis
-Bagnolet : chêne-liège planté en 1960, (labellisé « Arbre remarquable de France » en avril 2006)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Seine-et-Marne</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Champs-sur-Marne : If dit de Bossuet dans le parc du château (âgé de plus de 200 ans[Quand ?])
+Forêt de Fontainebleau : Chêne du Rocher Canon
+Ozoir-la-Ferrière : Cèdre de Jussieu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Seine-Saint-Denis</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Bagnolet : chêne-liège planté en 1960, (labellisé « Arbre remarquable de France » en avril 2006)
 Gournay-sur-Marne : catalpa du parc de la mairie (âge : ~200 ans)
 Pantin : Amandier.
-Coubron : Platane[68]
-Val-de-Marne
-Ivry-sur-Seine : Chêne vert (labellisé « Arbre remarquable de France » en 2015[69])
+Coubron : Platane</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Val-de-Marne</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ivry-sur-Seine : Chêne vert (labellisé « Arbre remarquable de France » en 2015)
 L'Haÿ-les-Roses : arbre de Judée
 Rungis : Tilleul à grandes feuilles (labellisé en 2011, situé dans le parc de la mairie d'honneur)
 			Rungis, Tilleul à grandes feuilles.
-Val-d'Oise
-Saint-Cyr-en-Arthies : platane d'Orient vieux de 400 ans (ce qui en fait peut-être le plus vieux platane de France), d'un diamètre de 3,3 m et d'une hauteur de 40 m, il se propage par marcottage spontané[70] ; labellisé en 2015.
-Jouy-le-Moutier : catalpas des jardins du campus Veolia (labellisés « Arbres remarquables de France » en 2015[71])
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Val-d'Oise</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Saint-Cyr-en-Arthies : platane d'Orient vieux de 400 ans (ce qui en fait peut-être le plus vieux platane de France), d'un diamètre de 3,3 m et d'une hauteur de 40 m, il se propage par marcottage spontané ; labellisé en 2015.
+Jouy-le-Moutier : catalpas des jardins du campus Veolia (labellisés « Arbres remarquables de France » en 2015)
 Vauréal : parc du Clos Levallois
 noyer noir d’Amérique
 tilleul à feuilles laciniées
-pins noirs (labellisés « Arbres remarquables de France » en 2015[71])
-Yvelines
-La Celle-Saint-Cloud : Châtaigniers de Tournebride
+pins noirs (labellisés « Arbres remarquables de France » en 2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Île-de-France</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Yvelines</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Celle-Saint-Cloud : Châtaigniers de Tournebride
 Les Clayes-sous-Bois : Arbre de Diane
 Rambouillet : Chêne de Montorgueil
 Versailles :
@@ -1022,15 +3020,53 @@
 Viroflay : Chêne de la Vierge
 			Sophora du Trianon.
 			Châtaigniers de Tournebride.
-Normandie
-Calvados
-Bayeux :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Calvados</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bayeux :
 Hêtre tortillard pleureur
 Platane de la liberté
 Caen : Sophora japonica planté en 1750 dans le Jardin des plantes de Caen, 4,60 m de circonférence
 Castillon : If funéraire
 Courson : If funéraire
-Estry : If funéraire, daté d'environ 1 600 ans, avec une circonférence de 11,55 m, est considéré comme l'un des plus vieux arbres de France[72].
+Estry : If funéraire, daté d'environ 1 600 ans, avec une circonférence de 11,55 m, est considéré comme l'un des plus vieux arbres de France.
 Livarot-Pays-d'Auge : Hêtre commun et platane d'Orient du château de Fervaques (plus vieux platane de France, âgé de plus de 500 ans, 25 m de hauteur, 13,80 m de circonférence à 1,50 m du sol, 36 m d'envergure)
 Pierres : If funéraire
 Saint-Pierre-la-Vieille : If funéraire
@@ -1041,13 +3077,52 @@
 			Platane de Fervaques.
 			Sophora japonica de Caen.
 			Hêtre pleureur de Bayeux.
-Eure
-Ont reçu le label « Arbre remarquable de France » :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Eure</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Ont reçu le label « Arbre remarquable de France » :
 Bouquetot : l'aubépine de Bouquetot, plantée au XIVe siècle, fleurit chaque année.
-Évreux : l'érable sycomore planté en façade du théâtre municipal d'Évreux avant la Révolution[73].
+Évreux : l'érable sycomore planté en façade du théâtre municipal d'Évreux avant la Révolution.
 Harcourt : neuf arbres remarquables de l'Arboretum d'Harcourt
 La Haye-de-Routot : ifs-chapelles funéraires de La Haye-de-Routot, dont un est aménagé en chapelle, a une circonférence de 11,02 m
-Radepont : tilleul - disparu à la suite des intempéries d'octobre 2014[74].
+Radepont : tilleul - disparu à la suite des intempéries d'octobre 2014.
 Saint-André-de-l'Eure : chêne à six fûts
 Saint-Sulpice-de-Grimbouville : if funéraire.
 Autres arbres :
@@ -1066,9 +3141,47 @@
 Saint-Victor-d'Épine : if funéraire
 Triqueville : if funéraire
 Le Troncq : if funéraire
-Vernon : catalpa du château de Bizy.
-Manche
-La Bloutière : If funéraire de + de 1 000 ans, circonférence de 8,30 m
+Vernon : catalpa du château de Bizy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Manche</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>La Bloutière : If funéraire de + de 1 000 ans, circonférence de 8,30 m
 Boutteville : If funéraire
 Brix : If funéraire, circonférence de 8,40 m
 Le Chefresne : If funéraire, circonférence de 8,80 m
@@ -1078,9 +3191,1663 @@
 Montcuit : If funéraire, 7,70 m
 Montgardon : If funéraire, 9,10 m, abattu en 2014.
 Nicorps : Ifs funéraires, 7,15 m
-Saint-Ursin : If funéraire de Saint-Ursin de 1 400 ans[Quand ?], circonférence de 10,70 m ou 9,65 m.
-Orne
-L'Aigle : Deux platanes tricentenaires, Platanus orientalis, famille des platanacées. Dimensions : hauteur 25 mètres; diamètre de la couronne 30 mètres; circonférence du tronc 7 mètres à 1,30 m du sol. Arbre de l'année le 11 octobre 2016[7</t>
+Saint-Ursin : If funéraire de Saint-Ursin de 1 400 ans[Quand ?], circonférence de 10,70 m ou 9,65 m.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Orne</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Aigle : Deux platanes tricentenaires, Platanus orientalis, famille des platanacées. Dimensions : hauteur 25 mètres; diamètre de la couronne 30 mètres; circonférence du tronc 7 mètres à 1,30 m du sol. Arbre de l'année le 11 octobre 2016
+Lalacelle : If funéraire, circonférence de 7,60 m
+La Lande-Patry : Ifs millénaires de La Lande-Patry, ifs funéraires dont l'un aurait été planté vers le VIe siècle et a une circonférence de 11,80 m ou 10,70 m
+Le Ménil-Ciboult : If funéraire + de 1 000 ans[Quand ?], 13 m de circonférence, ce qui en fait l'un des plus gros au monde.
+			Platanes tricentenaires de L'Aigle (Orne).
+			Ifs millénaires de La Lande-Patry.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Normandie</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Seine-Maritime</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allouville-Bellefosse : Chêne d'Allouville, environ 1 200 ans, plus vieux chêne de France,
+Auffay : tilleuls (et autres) du parc du château de Bosmelet
+Beauval-en-Caux (anciennement Beaunay) : Le chêne de la ferme de Socquentot  Site classé (1937) 49° 45′ 24″ N, 1° 02′ 35″ E.Ce chêne pédonculé aurait au moins 600 ans (plantation vers 1400 ?) et se trouve sur la propriété du maire Philippe Wemaëre.
+Beauvoir-en-Lyons : hêtre de La Bunodière en forêt de Lyons, plus grand arbre de Normandie (45 m.), abattu le 30 novembre 2013.
+Fresnay-le-Long : Le Gros Chêne, répertorié par Henri Gadeau de Kerville dans Les vieux arbres de Normandie , circonférence 15 mètres.
+Gouy : if funéraire
+La Mailleraye-sur-Seine : Le Chêne Cuve de la forêt de Brotonne (Guerbaville)
+Maucomble : buis de l'église Saint-Ouen
+Offranville : if funéraire, + de 1 100 ans
+Les Trois-Pierres : if-chapelle funéraire.
+Vieux-Rouen-sur-Bresle : Le tilleul de Bouafles, site naturel classé en 1932.
+			L'if millénaire d'Offranville.
+			Le chêne d'Allouville.
+			Le Gros Chêne à Fresnay-le-Long, carte postale vers 1910.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Charente</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cherves-Richemont : Chêne vert à l'entrée du conservatoire du vignoble charentais
+Saint-Même-les-Carrières : Chêne devant la mairie.
+			Chêne vert de Cherves-Richemont.
+			Chêne de Saint-Même-les-Carrières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Charente-Maritime</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ballans : cèdre du Liban, le plus vieux cèdre de France rapporté au baron de Livenne, seigneur de Ballans, par le botaniste Bernard de Jussieu en 1734.
+Clavette : un chêne multi-centenaire est classé arbre remarquable depuis 2017 46° 08′ 23″ N, 1° 03′ 26″ O.
+Marsilly : arbre de la liberté, un chêne chevelu planté en 1792, d'une envergure de 19 mètres.
+Les Mathes : platanes du Roi de Rome, bicentenaire, plantés en honneur du mariage de Napoléon Ier avec Marie-Louise de Habsbourg-Lorraine-Este.
+Neuvicq-le-Château : If 5,90 m de circonférence environ 500 ans
+Abbaye de Sablonceaux : Noyer d'Amérique : il aurait été planté à la fin du XVIIIe siècle pour commémorer l'indépendance des États-Unis. Il a été reconnu arbre remarquable en juillet 2001.
+			Arbre de la liberté de Marsilly
+			Les Mathes, platane planté en 1811.
+			Noyer noir d'Amérique de l'Abbaye Notre-Dame de Sablonceaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Corrèze</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Meymac : Douglaseraie des Farges, sapins de Douglas dont plusieurs sujets frisent les 60 m de hauteur.
+Montgibaud : Tilleul de Sully au tronc creux évidé planté sur le terre-plein devant l'église. Il aurait été planté au temps de Henri IV et de son ministre Sully. Soit au XVIe siècle. Ce tilleul aurait servi d'abri aux paroissiennes à la sortie de l'église. En Limousin chaque ferme en possédait un. On cueillait les fleurs que l'on faisait sécher à plat dans les greniers. Une fois sèche, les fleurs, conservés dans des pots servaient aux infusions aux vertus calmantes. On les utilisait pour les bains des bébés.
+Vigeois : If, de 9 m de circonférence, couvrant 350 m2 au sol et datant du VIe siècle, soit l'un des plus vieux arbres de France
+Vitrac-sur-Montane : Tilleul de Sully devant l'église Saint-Martin-de-Tours.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Creuse</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Mortroux : tilleul, le « Sully », aurait été planté sous le règne d'Henri IV[réf. nécessaire]
+Arrènes : Le chêne de Sully de Sazeirat, Arrènes (Creuse) Il a une circonférence de 7,10 mètres, l’arbre semble être en assez bonne santé malgré la perte d’un membre inférieur, probablement Lors de la tempête de décembre 1999.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Deux-Sèvres</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Celles-sur-Belle, hameau de La Revêtizon : La « talle à teurtous », châtaignier, tronc principal circonférence : plus de 7 mètres arbre mort mais deux drageons qui l'entourent lui ont redonné vie. L'ensemble fait 11,65 m de circonférence.
+Coutières : chêne de La Prennerie, circonférence de 7 mètres, hauteur : 20 m, âge : ~700 ans (labellisé «Arbres remarquable de France », 2014).
+Saint-Hilaire-la-Palud : robinier faux-acacia, planté en 1864 incliné à près de 45 degrés (photographie de 1906), labellisé « Arbres remarquables de France » en 2007.
+Villiers-en-Bois : érable de Montpellier de Virollet, circonférence à 1,30 m : 3,63 m hauteur : 14 m envergure : 20 m (labellisé «Arbres remarquable de France », 2017.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Dordogne</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brantôme : Peuplier noir
+			Peuplier noir de Brantôme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Gironde</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Le Porge : platane d'âge estimé à 130 ans (mai 2003), 4,75 m de circonférence
+Talence : zelkova du parc André Curvale (janvier 2008), 4,45 m de circonférence</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Haute-Vienne</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Limoges :
+Parc Victor-Thuillat, séquoia géant
+Parc Lafayette :
+tulipier, circonférence : 5,35m âge : ~300 ans
+deux Sequoias circonférence, 7,50 m et 8,30 m
+un cèdre bleu de l'Atlas</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Landes</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Lüe : chêne de Cantaure, dont les premières racines auraient poussé au XIVe siècle, avec un âge estimé à environ 700-800 ans. Le spécialiste de la Haute-Lande Félix Arnaudin a mentionné l'arbre dans son ouvrage aux temps des échasses. Il compte 8 mètres de circonférence dont 11 à la base. Labellisé " Arbre remarquable de France " en 2011.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Lot-et-Garonne</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Villeneuve-sur-Lot : chêne du parc du château de Rogé, âge : ~ 300 ans (labellisé « Arbre remarquable de France » en 2019).
+Tombebœuf : chêne commun, 38 m d'envergure, 25 m de haut et 6,30 m de circonférence du tronc, âge estimé: 300 ans; labellisé « arbre remarquable » en 2003, et prix du jury au concours du plus bel arbre de France en 2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Pyrénées-Atlantiques</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Lys : chêne (propriété privée), circonférence de 7,50 m, âge estimé : ~600 ans (labellisé « Arbre remarquable de France » en 2012).
+Orthez : chêne (propriété privée), 30 m de haut, âge estimé : ~400 ans (labellisé « Arbre remarquable de France » en 2015.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Nouvelle-Aquitaine</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Vienne</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Poitiers :
+chêne de la Matauderie, vieux de 350 ans, 30 mètres de haut, ses 6 mètres de circonférence (labellisé « Arbre remarquable de France » en 2019)
+Jardin des plantes : ginkgo biloba
+cimetière de Chilvert : cèdre du Liban
+parc des Prés-Mignons : deux séquoias
+Montmorillon :
+Magnolia à grandes fleurs (Magnolia grandiflora) situé dans le square Alphonse-Boudard.
+Ginkgo biloba situé devant la mairie de Montmorillon</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Ariège</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Carla-Bayle (La Gleysette) : chêne, âge : 400 ans, hauteur : 32 m, circonférence : 7 m, envergure : 10 m.
+Pamiers : chêne des Négrats, âge 250 ans, circonférence : 4 m, hauteur : 20 m</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Aude</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caunes-Minervois : deux Platanes sur la place de la République. Plantés en 1792, ils ont été labellisés en 2017.
+Durban-Corbières : Genévrier cade tricentenaire. Labellisé « Arbre remarquable ».
+Montolieu :
+Sapin de Douglas de la Forge de Montolieu. Labellisé « Arbre remarquable » en janvier 2015.
+Les Cyprès de la Chapelle Saint Roch. Groupe de Cyprès de Provence à port étalé (cupressus sempervirens var. horizontalis), on estime leurs âges entre 400 et 600 ans. Labellisés "Arbre Remarquable" en août 2014.
+Port-la-Nouvelle : Oliviers bonsaïs.
+Villesèquelande : Orme de Sully. Vieil Orme de 400 ans qui a résisté à la graphiose. Labellisé « Arbre remarquable » en 2013.
+			Olivier bonsaï à Port-la-Nouvelle en 2015.
+			Cyprès de St-Roch de Montolieu en 2016.
+			Platanes de Caunes-Minervois en 2016.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Aveyron</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Tayrac : chêne pédonculé, hauteur : 21 m, envergure : 18 m, circonférence : 2,5 m</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Gard</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Saint-Sauveur-Camprieu : Arboretum de la Foux, Sapins jumeaux de Vancouver sur le versant océanique du massif de l'Aigoual âgés d'à peine plus de 110 ans l'un des deux atteint 63 mètres et pourrait être l'arbre le plus haut de France. Récemment attaqués à grande vitesse par un parasite ils doivent, hélas, être abattus dans le courant de l'année 2013.
+Pont-Saint-Esprit : Platane du château des Bruyères 55 mètres de hauteur et 10 mètres de circonférence pour le tronc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Gers</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Masclat : tilleul de Sully, 3,95 mètres de circonférence à 1,40 m du sol, hauteur : 5 mètres.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Haute-Garonne</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Villariès : face à l'église gothique, un chêne de Sully datant du XVIe siècle.
+Toulouse : platanes du canal de Brienne, micocoulier du cimetière de Terre-Cabade, alignement des mûriers avenue Marcel-Dassault, magnolia de Purpan planté au XVIIIe siècle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Hautes-Pyrénées</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Bonnemazon : Chêne de l’Abbaye de l’Escaladieu, 6,04 mètres de circonférence, 30 mètres de haut.
+Tarbes :
+cèdre du square Maurice Trélut;
+cèdre du parc Bel-Air.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Hérault</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Félines-Minervois : Chêne.
+Fraisse-sur-Agout : Hêtre, plus de 600 ans pour une circonférence de 9 mètres.
+Pierrerue : Mûrier.
+Saint-Guilhem-le-Désert : platane planté en 1848 pour célébrer la naissance de la Deuxième République, bien qu'un panonceau indique la date du 21 janvier 1855 il a donc plus de 150 ans. D'une hauteur de 20 mètres environ, il possède un tronc dont la circonférence dépasse les 6 mètres. Surnommé le « Roi platane », une légende lui est associée, selon laquelle un âne attaché à son tronc se serait fait emporter par une crue du Verdus et aurait été retrouvé assis sur l'autel de l'église toute proche.
+Castelnau-le-Lez : Chêne, labellisé arbre remarquable en 2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Lot</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Saint Cirgues se trouve à 20km au nord-est de Figeac :
+Ce tilleul de Sully est vraiment particulier, malgré ses 400 ans il a encore une bonne vitalité, son tronc est creux certes mais à la différence d’autres tilleuls rien ne le laisse présager à part une petite fissure en haut du tronc, sa hauteur est vraiment inhabituelle pour un tilleul (35 mètres d’après ceux qui ont effectué les mesures) après la tempête du 21 mai 2014 il est mesurer à 20 m de haut., un fût de 11 mètres de haut et un tour de taille de + de 9 mètres à hauteur d’homme.
+Cahors :
+pin parasol, circonférence : 3,56 mètres;</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Lozère</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Saint-Étienne-du-Valdonnez : hêtre tortillard</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Pyrénées-Orientales</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Opoul-Périllos : Genévrier d'environ 1 600 ans, 4,6 m de circonférence
+Prades : Platane de plus de 150 ans, avec une circonférence de 10 mètres.
+Reynès : Chêne-liège, remarquable pour sa taille. Son âge est estimé à 300 ans pour une circonférence de 5,60 mètres.
+Le Vivier : Le Fajas d'en Baillette de la Forêt communale. Hêtre remarquable de 500 ans pour une hauteur de 30 mètres et une circonférence de 5,75 mètres (données 2007).</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Tarn</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Castres : Cèdre remarquable du Jardin Briguiboul
+Garrevaques : Chêne pedonculé de 550 ans dans le parc du château de Garrevaques.
+Sorèze : Hêtre tricentenaire de St-Jammes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Occitanie</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Tarn-et-Garonne</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Merles : Chêne d'Henri IV
+Verdun-sur-Garonne : Allée des platanes, plantée en 1815 : 63 platanes de plus de 50 m de haut, sur un site historique classé.
+			Platane de Saint-Guilhem-le-Désert.
+			Génévrier d'Opoul.
+			Chêne-liège de Camp de Séris à Reynès.
+			Allée des platanes à Verdun-sur-Garonne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Loire-Atlantique</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abbaretz : Châtaignier des Nonneries
+Bonnœuvre : Chêne aux clous
+Corcoué-sur-Logne : Chêne Louis XIII
+Missillac : Platane pendula d'orient doré planté entre 1620 et 1640
+Nantes : Châtaignier de l'Eraudière
+			Chataignier de l Eraudière
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Mayenne</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lassay-les-Châteaux : Houx du château de Lassay
+Saint-Mars-sur-la-Futaie : Aubépine de 1 700 ans (ce qui en fait un des plus vieux arbres de France), du IIIe siècle, contemporaine de saint Julien.
+			Houx du château de Lassay
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Maine-et-Loire</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Angers : Platane commun (Platanus x acerifolia de l'Île Saint-Aubin), cet arbre présente un houppier de 40 m de diamètre environ
+Savennières : Platane du parc du Fresne qui atteint 18,5 mètres de circonférence et qui résulte de la juxtaposition de deux arbres</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Sarthe</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Jauzé : L'if millénaire de Jauzé est situé sur la commune de Jauzé, à 25 km au Nord-Est du Mans. Il se trouve dans le cimetière communal près de l'église. Sa circonférence à 1,30 m du sol est de 5,70 m. Son âge est estimé entre 850 et 900 ans. En 2001, Il fait partie des premières labellisations arbre remarquable de France.
+Jupilles : le chêne Emery, en hommage à Auguste-Joseph Émery (1868-1945), ancien conservateur des eaux et forêts, est situé dans la Forêt domaniale de Bercé. Il est labellisé Arbre remarquable en 2002.
+Malicorne-sur-Sarthe : le noyer noir d’Amérique est labellisé Arbre remarquable en 2016.
+Le Mans : Ensemble d'arbres situé à l'Arche de la Nature intégrant un sentier de découverte est labellisé Arbre remarquable en 2005.
+Meurcé : Séquoia géant du cimetière est labellisé Arbre remarquable en 2017.
+Pirmil :
+Frêne, 5,70 m de circonférence
+Chêne de la Grande Brandinière, circonférence : 5,40 mm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Pays de la Loire</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Vendée</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Montréverd, (Saint-Sulpice-le-Verdon) : chêne-chapelle dont le tronc creux est aménagé en chapelle. 14,50 m de circonférence.
+Payré-sur-Vendée : arbre de la Liberté, platane.
+			L'aubépine de Saint-Mars-sur-la-Futaie.
+			Le platane tri-centenaire de Savennières.
+			Platane de l'Île Saint-Aubin à Angers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Alpes-de-Haute-Provence</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Saint-Étienne-les-Orgues :
+trois tilleuls bicentenaires
+un noyer bicentenaire.
+Simiane-la-Rotonde
+Chêne remarquable au Jardin de l'abbaye de Valsaintes</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Alpes-Maritimes</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Gorbio : Orme
+Nice : Caroubiers
+Roquebrune-Cap-Martin : Olivier millénaire qui aurait plus de 2 000 ans, ce qui lui donne le titre de l'arbre le plus vieux de France, titre disputé par l'olivier de Filitosa.
+Isola 2000 : Mélèze dit "mélèze Poussin", situé sur la piste des Roubines, qui daterait de 1594, année de naissance du peintre Nicolas Poussin, circonférence 6,50 m, à 2150 m d'altitude. La remontée mécanique des Roubines a été décalée pour préserver cet arbre remarquable. C'est l'un des plus anciens mélèzes d'Europe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Bouches-du-Rhône</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Aix-en-Provence :
+Cèdres du Cimetière St Pierre
+deux chênes blancs du Pavillon de Vendôme
+trois pins du Terrains des Peintres dans le Domaine de la Marguerite
+platane de la Promenade de la Torse, 6,40 mètres de circonférence
+alignement de platanes à l’entrée de la Bastide du Jas de Bouffan.
+Bouc-Bel-Air : Platanes du Parc de La Babiole, 2 de 5,40 m de circonférence, d'une hauteur de 48,50 m
+Lamanon : Platane géant
+Miramas : Pin d'Alep
+La Barben : Séquoïa géant du château de La Barden, plus de 300 ans, 40 m de haut.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Hautes-Alpes</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Saint-Crépin : Genévriers thurifères</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Var</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>La Londe-les-Maures : Le Pas du cerf, chêne liège millénaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbres_remarquables_de_France</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Liste des arbres remarquables de France par région</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Vaucluse</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avignon : peuplier blanc de l'île de Bartelasse, circonférence : 6 mètres à 1,3 m de hauteur
+Grambois : chêne blanc (chêne pubescent).
+Villelaure : cèdre de l'Atlas du parc municipal, 5,3 m de circonférence, houppier 17 m d'envergure.
+			Le platane géant de Provence à Lamanon (Bouches-du-Rhône).
+			Le vieux pin d'Alep à Miramas (Bouches-du-Rhône).
+			Le chêne liège millénaire à La Londe-les-Maures (Var).
+			Séquoïa géant du parc du château de La Barben,(Bouches-du-Rhône).
+</t>
         </is>
       </c>
     </row>
